--- a/CBWSTC/CBWSTC_WorkSpace/Projects/ParkingFeeCalculator/Excel/loginRequest.xlsx
+++ b/CBWSTC/CBWSTC_WorkSpace/Projects/ParkingFeeCalculator/Excel/loginRequest.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CBWSTC\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GraduateExpermentalPrograms\pfc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -45,15 +45,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-</t>
+    <t>动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginResponse_fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginResponse_succ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(&lt; login_?_loginTime 0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(&gt; login_?_loginTime 24)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(&gt;= login_?_loginTime 0) &amp;&amp; (&lt;= login_?_loginTime 24)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(= true (str.in.re login_?_License (re.++ (re.++ (re.++ (re.++ (re.++ (re.++ (str.to.re "BJ") (re.range "A" "Y")) (re.range "0" "9")) (re.range "0" "9")) (re.range "0" "9")) (re.range "0" "9")) (re.range "0" "9"))))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(= false (str.in.re login_?_License (re.++ (re.++ (re.++ (re.++ (re.++ (re.++ (str.to.re "BJ") (re.range "A" "Y")) (re.range "0" "9")) (re.range "0" "9")) (re.range "0" "9")) (re.range "0" "9")) (re.range "0" "9"))))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -61,39 +89,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>loginResponse_fail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loginResponse_succ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(&lt; login_?_loginTime 0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(&gt; login_?_loginTime 24)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(&gt;= login_?_loginTime 0) &amp;&amp; (&lt;= login_?_loginTime 24)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(= true (str.in.re login_?_License (re.++ (re.++ (re.++ (re.++ (re.++ (re.++ (str.to.re "BJ") (re.range "A" "Y")) (re.range "0" "9")) (re.range "0" "9")) (re.range "0" "9")) (re.range "0" "9")) (re.range "0" "9"))))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(= false (str.in.re login_?_License (re.++ (re.++ (re.++ (re.++ (re.++ (re.++ (str.to.re "BJ") (re.range "A" "Y")) (re.range "0" "9")) (re.range "0" "9")) (re.range "0" "9")) (re.range "0" "9")) (re.range "0" "9"))))</t>
+    <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,7 +465,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -505,19 +505,19 @@
     </row>
     <row r="3" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>1</v>
@@ -526,16 +526,16 @@
     <row r="4" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>4</v>
@@ -544,16 +544,16 @@
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>2</v>
@@ -562,16 +562,16 @@
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>3</v>
@@ -580,16 +580,16 @@
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>3</v>
@@ -597,19 +597,19 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>1</v>
@@ -618,7 +618,7 @@
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>1</v>
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
